--- a/Task1/Book.xlsx
+++ b/Task1/Book.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nokia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nokiakatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D12EAB-A384-4986-A970-EEAF97DD7D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD464A-6A34-4F0B-B9CE-9C117465823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="340" windowWidth="6380" windowHeight="7360" xr2:uid="{173B8B49-15E3-488F-866C-E21516B81593}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{173B8B49-15E3-488F-866C-E21516B81593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,62 +41,64 @@
     <t>Class</t>
   </si>
   <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>getDetails</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>calculateTotal()</t>
+  </si>
+  <si>
+    <t>Order "1" -- "*" OrderItem</t>
+  </si>
+  <si>
+    <t>OrderItem</t>
+  </si>
+  <si>
+    <t>getPrice()</t>
+  </si>
+  <si>
+    <t>OrderItem "*" -- "1" Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>getDescription()</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
     <t>Attributes</t>
   </si>
   <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Relationships</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>getDetails</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>calculateTotal()</t>
-  </si>
-  <si>
-    <t>Order "1" -- "*" OrderItem</t>
-  </si>
-  <si>
-    <t>OrderItem</t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>getPrice()</t>
-  </si>
-  <si>
-    <t>OrderItem "*" -- "1" Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>getDescription()</t>
+    <t>name
+address
+email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,80 +468,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE8F67-55B6-4023-8A23-A099F3CFF4A1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
